--- a/target/test-classes/ulkeler.xlsx
+++ b/target/test-classes/ulkeler.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A969BAC5-1713-4F44-94C0-4368A06E2414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77F8ECF-98D6-DB4F-9A18-C9843274B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="579">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1744,13 +1744,27 @@
   </si>
   <si>
     <t>Nufus</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>baskent ingilizce</t>
+  </si>
+  <si>
+    <t>ulke ismi ing - ulke ismi turkce - baskent ismi turkce</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1865,7 +1879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1889,6 +1903,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2171,18 +2191,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="80.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2195,11 +2217,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2212,11 +2234,17 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>1500000.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1500000</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2229,8 +2257,14 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2243,8 +2277,14 @@
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2272,7 +2312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2286,7 +2326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2300,7 +2340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2314,7 +2354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2327,11 +2367,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="n" s="0">
-        <v>250000.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2345,7 +2385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2359,7 +2399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2373,7 +2413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2387,7 +2427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2400,11 +2440,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="n" s="0">
-        <v>54000.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4885,66 +4925,66 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="0">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="0">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="0">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="0">
+      <c r="B13">
         <v>7</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="0">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="0">
+      <c r="E20">
         <v>1</v>
       </c>
     </row>
